--- a/五四表彰优秀团员申报汇总表.xlsx
+++ b/五四表彰优秀团员申报汇总表.xlsx
@@ -5,18 +5,23 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\安全测试渗透\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA_Data\Python_env\Extract_excel_fields\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6028971F-BD2A-467A-9ED4-019223D29E2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5312A1A-929A-4AF7-A355-743158AD4676}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="28800" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,85 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>学号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>政治面貌</t>
-  </si>
-  <si>
-    <t>团支部</t>
-  </si>
-  <si>
-    <t>班级人数</t>
-  </si>
-  <si>
-    <t>综合排名</t>
-  </si>
-  <si>
-    <t>智育排名</t>
-  </si>
-  <si>
-    <t>职务</t>
-  </si>
-  <si>
-    <t>是否兼报</t>
-  </si>
-  <si>
-    <t>副班长</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>学习委员</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>团支书</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>心理委员</t>
-  </si>
-  <si>
-    <t>宣传委员</t>
-  </si>
-  <si>
-    <t>副班长、体育委员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX部干事</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均排名（精确到小数点后一位）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-  </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,22 +60,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -174,6 +90,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -192,21 +115,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -218,91 +126,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -595,214 +491,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="35.5" customWidth="1"/>
-    <col min="11" max="11" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:52" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/五四表彰优秀团员申报汇总表.xlsx
+++ b/五四表彰优秀团员申报汇总表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA_Data\Python_env\Extract_excel_fields\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5312A1A-929A-4AF7-A355-743158AD4676}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672CDCC1-FC3C-4593-AFDE-137F98EA0CA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="28800" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,133 @@
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>需求和计划_综合得分</t>
+  </si>
+  <si>
+    <t>需求和计划_供应战略得分</t>
+  </si>
+  <si>
+    <t>需求和计划_需求和预测得分</t>
+  </si>
+  <si>
+    <t>需求和计划_需求申请得分</t>
+  </si>
+  <si>
+    <t>物资管理_综合得分</t>
+  </si>
+  <si>
+    <t>物资管理_仓储库存策略得分</t>
+  </si>
+  <si>
+    <t>物资管理_物资安全性得分</t>
+  </si>
+  <si>
+    <t>物资管理_产品参数和物料清单</t>
+  </si>
+  <si>
+    <t>物资管理_库存准确性</t>
+  </si>
+  <si>
+    <t>物资管理_物料补充计划</t>
+  </si>
+  <si>
+    <t>物资管理_库存周转率</t>
+  </si>
+  <si>
+    <t>物资管理_人员及设备管理</t>
+  </si>
+  <si>
+    <t>物资管理_退场物资管理</t>
+  </si>
+  <si>
+    <t>物料获取_综合得分</t>
+  </si>
+  <si>
+    <t>物料获取_评估目标供应商得分</t>
+  </si>
+  <si>
+    <t>物料获取_采购流程的持续改进得分</t>
+  </si>
+  <si>
+    <t>物料获取_询价比价得分</t>
+  </si>
+  <si>
+    <t>物料获取_量产前审批得分</t>
+  </si>
+  <si>
+    <t>物料获取_订单稳定性得分</t>
+  </si>
+  <si>
+    <t>物料获取_收货和发货得分</t>
+  </si>
+  <si>
+    <t>物料获取_运营物资准确性得分</t>
+  </si>
+  <si>
+    <t>订单执行_综合得分</t>
+  </si>
+  <si>
+    <t>订单执行_需求核对得分</t>
+  </si>
+  <si>
+    <t>订单执行_计划分解得分</t>
+  </si>
+  <si>
+    <t>订单执行_调拨计划和执行得分</t>
+  </si>
+  <si>
+    <t>订单执行_生产计划和执行得分</t>
+  </si>
+  <si>
+    <t>订单执行_采购计划和执行得分</t>
+  </si>
+  <si>
+    <t>订单执行_物流计划和执行得分</t>
+  </si>
+  <si>
+    <t>订单执行_物资供应按时率得分</t>
+  </si>
+  <si>
+    <t>供应资源管理_综合得分</t>
+  </si>
+  <si>
+    <t>供应资源管理_供应资源规划得分</t>
+  </si>
+  <si>
+    <t>供应资源管理_供应资源审核得分</t>
+  </si>
+  <si>
+    <t>供应资源管理_供应资源绩效得分</t>
+  </si>
+  <si>
+    <t>供应资源管理_供应资源管理得分</t>
+  </si>
+  <si>
+    <t>供应资源管理_合作模式供应资源管理得分</t>
+  </si>
+  <si>
+    <t>111111111111</t>
+  </si>
+  <si>
+    <t>3333333333333</t>
+  </si>
+  <si>
+    <t>222222222222</t>
+  </si>
+  <si>
+    <t>4444444444444</t>
+  </si>
+  <si>
+    <t>555555555555555555</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93,10 +211,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +233,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,13 +285,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,9 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -197,14 +309,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="17"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 4" xfId="17" xr:uid="{9E70B244-4897-43EF-85CF-CBDC373B6AE6}"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
@@ -491,63 +615,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:CA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="17.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="2" customWidth="1"/>
+    <col min="4" max="25" width="8.875" style="2"/>
+    <col min="26" max="26" width="41.875" style="9" customWidth="1"/>
+    <col min="27" max="27" width="18.375" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
+    <row r="1" spans="1:79" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
+      <c r="AP1" s="11"/>
       <c r="AQ1" s="9"/>
       <c r="AR1" s="9"/>
       <c r="AS1" s="9"/>
@@ -556,88 +763,112 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
+      <c r="AY1" s="11"/>
       <c r="AZ1" s="9"/>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+    </row>
+    <row r="4" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="B6" s="1"/>
+      <c r="Z6" s="11"/>
+    </row>
+    <row r="7" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:79" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:79" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="16" spans="1:79" x14ac:dyDescent="0.15">
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="25" spans="26:26" x14ac:dyDescent="0.15">
+      <c r="Z25" s="11"/>
+    </row>
+    <row r="34" spans="26:26" x14ac:dyDescent="0.15">
+      <c r="Z34" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>